--- a/Code/Results/Cases/Case_0_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.219552989453331</v>
+        <v>4.194610486936591</v>
       </c>
       <c r="D2">
-        <v>8.231681652750424</v>
+        <v>9.569347722294449</v>
       </c>
       <c r="E2">
-        <v>11.38511401661239</v>
+        <v>13.84292599521781</v>
       </c>
       <c r="F2">
-        <v>20.27460897581887</v>
+        <v>31.23611681445975</v>
       </c>
       <c r="G2">
-        <v>2.079259476364711</v>
+        <v>3.64737526039056</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.14698360348161</v>
+        <v>21.6320821660381</v>
       </c>
       <c r="J2">
-        <v>6.28960086308856</v>
+        <v>9.872518522162169</v>
       </c>
       <c r="K2">
-        <v>24.70261989631537</v>
+        <v>17.3022849943482</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.50474871477534</v>
+        <v>23.39063903491109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.947597408609372</v>
+        <v>4.080754817109423</v>
       </c>
       <c r="D3">
-        <v>7.826099239749467</v>
+        <v>9.486150388326237</v>
       </c>
       <c r="E3">
-        <v>10.8808676427355</v>
+        <v>13.76896597225797</v>
       </c>
       <c r="F3">
-        <v>20.03424297366804</v>
+        <v>31.37544491137397</v>
       </c>
       <c r="G3">
-        <v>2.085462082774653</v>
+        <v>3.649657766113261</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.14004184968523</v>
+        <v>21.7536717553161</v>
       </c>
       <c r="J3">
-        <v>6.183581137079553</v>
+        <v>9.881908553824912</v>
       </c>
       <c r="K3">
-        <v>23.08979876299367</v>
+        <v>16.60921730026283</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.63883286428164</v>
+        <v>23.54478484021562</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.772827323333455</v>
+        <v>4.008639872439859</v>
       </c>
       <c r="D4">
-        <v>7.56867388395806</v>
+        <v>9.435861461953655</v>
       </c>
       <c r="E4">
-        <v>10.56545391629219</v>
+        <v>13.72604734753341</v>
       </c>
       <c r="F4">
-        <v>19.91778161995367</v>
+        <v>31.47134251587159</v>
       </c>
       <c r="G4">
-        <v>2.089375361613839</v>
+        <v>3.651131723957966</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.15795975848014</v>
+        <v>21.83513027385881</v>
       </c>
       <c r="J4">
-        <v>6.121560036597599</v>
+        <v>9.889341373462049</v>
       </c>
       <c r="K4">
-        <v>22.04201994245093</v>
+        <v>16.16834046132578</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.74520494999868</v>
+        <v>23.6466012201505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.699686522940789</v>
+        <v>3.978725405040316</v>
       </c>
       <c r="D5">
-        <v>7.461774191673354</v>
+        <v>9.415585151080871</v>
       </c>
       <c r="E5">
-        <v>10.43563277015817</v>
+        <v>13.70919814481828</v>
       </c>
       <c r="F5">
-        <v>19.87788097241673</v>
+        <v>31.51301000273679</v>
       </c>
       <c r="G5">
-        <v>2.09099728485125</v>
+        <v>3.6517506613563</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.17054348334596</v>
+        <v>21.87002796843324</v>
       </c>
       <c r="J5">
-        <v>6.097065703139232</v>
+        <v>9.892789555397641</v>
       </c>
       <c r="K5">
-        <v>21.60053417376851</v>
+        <v>15.98504849944392</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.79419849482627</v>
+        <v>23.68988877388743</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.687426842420466</v>
+        <v>3.97372715782322</v>
       </c>
       <c r="D6">
-        <v>7.443906732957356</v>
+        <v>9.412231871653997</v>
       </c>
       <c r="E6">
-        <v>10.41400380556164</v>
+        <v>13.70643940995901</v>
       </c>
       <c r="F6">
-        <v>19.87170355882876</v>
+        <v>31.52008477404822</v>
       </c>
       <c r="G6">
-        <v>2.091268273026162</v>
+        <v>3.651854541712664</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.17294327063224</v>
+        <v>21.87592531577196</v>
       </c>
       <c r="J6">
-        <v>6.093045690852563</v>
+        <v>9.893387442600208</v>
       </c>
       <c r="K6">
-        <v>21.52634842827473</v>
+        <v>15.95440079643872</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.80266343410734</v>
+        <v>23.69718496002385</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.771848640385027</v>
+        <v>4.008238530926345</v>
       </c>
       <c r="D7">
-        <v>7.567240115680526</v>
+        <v>9.4355871083502</v>
       </c>
       <c r="E7">
-        <v>10.56370807086718</v>
+        <v>13.72581750273441</v>
       </c>
       <c r="F7">
-        <v>19.91721327981035</v>
+        <v>31.47189399661017</v>
       </c>
       <c r="G7">
-        <v>2.089397124072664</v>
+        <v>3.651139997039631</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.15810847509477</v>
+        <v>21.83559403253041</v>
       </c>
       <c r="J7">
-        <v>6.121226532827488</v>
+        <v>9.889386179423175</v>
       </c>
       <c r="K7">
-        <v>22.03612470587692</v>
+        <v>16.1658829074648</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.74584335124277</v>
+        <v>23.64717774556613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.127419044876795</v>
+        <v>4.15582723303988</v>
       </c>
       <c r="D8">
-        <v>8.093641870734103</v>
+        <v>9.540506694133462</v>
       </c>
       <c r="E8">
-        <v>11.21255034098633</v>
+        <v>13.81691553894355</v>
       </c>
       <c r="F8">
-        <v>20.18511961036525</v>
+        <v>31.28200075062732</v>
       </c>
       <c r="G8">
-        <v>2.081376908026626</v>
+        <v>3.648147258878002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.13981132525881</v>
+        <v>21.67258985266911</v>
       </c>
       <c r="J8">
-        <v>6.252411209308654</v>
+        <v>9.875410179419077</v>
       </c>
       <c r="K8">
-        <v>24.15842007922323</v>
+        <v>17.06662289652471</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.54574585414597</v>
+        <v>23.44229641289073</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.761679463549304</v>
+        <v>4.42661872121478</v>
       </c>
       <c r="D9">
-        <v>9.055268953085866</v>
+        <v>9.751795429294111</v>
       </c>
       <c r="E9">
-        <v>12.43255299955788</v>
+        <v>14.01470435654661</v>
       </c>
       <c r="F9">
-        <v>20.96768896062169</v>
+        <v>30.99235056580243</v>
       </c>
       <c r="G9">
-        <v>2.06643955524702</v>
+        <v>3.642850965887483</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.29258908002333</v>
+        <v>21.40725493987252</v>
       </c>
       <c r="J9">
-        <v>6.533740815723782</v>
+        <v>9.861229922837545</v>
       </c>
       <c r="K9">
-        <v>27.86683259948195</v>
+        <v>18.70285628469509</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.36259612056063</v>
+        <v>23.0977101675796</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.188167795293032</v>
+        <v>4.612868529172054</v>
       </c>
       <c r="D10">
-        <v>9.714576503296044</v>
+        <v>9.90937096609378</v>
       </c>
       <c r="E10">
-        <v>13.29018677933121</v>
+        <v>14.17078646728502</v>
       </c>
       <c r="F10">
-        <v>21.71097784967737</v>
+        <v>30.830785855673</v>
       </c>
       <c r="G10">
-        <v>2.055884506087382</v>
+        <v>3.639304945569891</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.53605423489137</v>
+        <v>21.24589570712284</v>
       </c>
       <c r="J10">
-        <v>6.754670050288279</v>
+        <v>9.858866795763797</v>
       </c>
       <c r="K10">
-        <v>30.31968891014841</v>
+        <v>19.81605735060812</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.38123804405253</v>
+        <v>22.87981161379226</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.373508907083554</v>
+        <v>4.694597892708351</v>
       </c>
       <c r="D11">
-        <v>10.00370307510191</v>
+        <v>9.981341663754224</v>
       </c>
       <c r="E11">
-        <v>13.67096153732945</v>
+        <v>14.243922604925</v>
       </c>
       <c r="F11">
-        <v>22.08748015321119</v>
+        <v>30.76857502406443</v>
       </c>
       <c r="G11">
-        <v>2.051158817105971</v>
+        <v>3.637765904245766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.67838329020547</v>
+        <v>21.17988151057968</v>
       </c>
       <c r="J11">
-        <v>6.858183270591561</v>
+        <v>9.859536842505033</v>
       </c>
       <c r="K11">
-        <v>31.37775052907688</v>
+        <v>20.30157559152633</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.42844433933986</v>
+        <v>22.78843261815602</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.442443865442169</v>
+        <v>4.725098083487429</v>
       </c>
       <c r="D12">
-        <v>10.11160565473207</v>
+        <v>10.00861786132424</v>
       </c>
       <c r="E12">
-        <v>13.81374892146308</v>
+        <v>14.2719057577</v>
       </c>
       <c r="F12">
-        <v>22.2356805555093</v>
+        <v>30.74665278436012</v>
       </c>
       <c r="G12">
-        <v>2.049378883541417</v>
+        <v>3.637193697523984</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.73704186854446</v>
+        <v>21.15595443037151</v>
       </c>
       <c r="J12">
-        <v>6.89780831175712</v>
+        <v>9.860040936978203</v>
       </c>
       <c r="K12">
-        <v>31.77021241694996</v>
+        <v>20.4823178996291</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.45232158635773</v>
+        <v>22.75495120886878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.42765306784176</v>
+        <v>4.718549556343587</v>
       </c>
       <c r="D13">
-        <v>10.08843769574921</v>
+        <v>10.00274274765844</v>
       </c>
       <c r="E13">
-        <v>13.78306023912899</v>
+        <v>14.26586657563768</v>
       </c>
       <c r="F13">
-        <v>22.2035111578706</v>
+        <v>30.75130118830296</v>
       </c>
       <c r="G13">
-        <v>2.049761820182654</v>
+        <v>3.637316462144645</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.72419364885315</v>
+        <v>21.16105978405225</v>
       </c>
       <c r="J13">
-        <v>6.889255442551461</v>
+        <v>9.859921246730641</v>
       </c>
       <c r="K13">
-        <v>31.6860518512788</v>
+        <v>20.44353183612653</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.44690562203131</v>
+        <v>22.76211200290178</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.379205274011403</v>
+        <v>4.697116256076953</v>
       </c>
       <c r="D14">
-        <v>10.01261215497568</v>
+        <v>9.983585351664841</v>
       </c>
       <c r="E14">
-        <v>13.68273713268179</v>
+        <v>14.24621913105424</v>
       </c>
       <c r="F14">
-        <v>22.09955936168889</v>
+        <v>30.76673861642743</v>
       </c>
       <c r="G14">
-        <v>2.051012196838096</v>
+        <v>3.63771861643246</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.68311255354254</v>
+        <v>21.1778915008916</v>
       </c>
       <c r="J14">
-        <v>6.861434720209481</v>
+        <v>9.859573300751268</v>
       </c>
       <c r="K14">
-        <v>31.41020239386595</v>
+        <v>20.31650832953216</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.43028605660232</v>
+        <v>22.78565555157293</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.349366844896344</v>
+        <v>4.683928770969318</v>
       </c>
       <c r="D15">
-        <v>9.965959897373581</v>
+        <v>9.971853254069465</v>
       </c>
       <c r="E15">
-        <v>13.62110216127293</v>
+        <v>14.23422145710169</v>
       </c>
       <c r="F15">
-        <v>22.03662158508579</v>
+        <v>30.77640786524497</v>
       </c>
       <c r="G15">
-        <v>2.051779295351372</v>
+        <v>3.63796632567629</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.6585754638252</v>
+        <v>21.18834114994201</v>
       </c>
       <c r="J15">
-        <v>6.844449162171921</v>
+        <v>9.859392759227834</v>
       </c>
       <c r="K15">
-        <v>31.24017151729179</v>
+        <v>20.23829438566114</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.42090012331016</v>
+        <v>22.80022299761005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.175880493596908</v>
+        <v>4.607465439447254</v>
       </c>
       <c r="D16">
-        <v>9.69546125013073</v>
+        <v>9.904671690085278</v>
       </c>
       <c r="E16">
-        <v>13.26510847467728</v>
+        <v>14.16604819292084</v>
       </c>
       <c r="F16">
-        <v>21.68715454226675</v>
+        <v>30.83507968457223</v>
       </c>
       <c r="G16">
-        <v>2.05619475649257</v>
+        <v>3.639407011122221</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.52740751850001</v>
+        <v>21.25035930614984</v>
       </c>
       <c r="J16">
-        <v>6.747965238775078</v>
+        <v>9.858858075251245</v>
       </c>
       <c r="K16">
-        <v>30.24938845373988</v>
+        <v>19.7838975957678</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.37896967766127</v>
+        <v>22.88593997863277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.067227985582546</v>
+        <v>4.559776733347336</v>
       </c>
       <c r="D17">
-        <v>9.526728262091261</v>
+        <v>9.863518340798368</v>
       </c>
       <c r="E17">
-        <v>13.04427225288674</v>
+        <v>14.12475940857292</v>
       </c>
       <c r="F17">
-        <v>21.4826812034473</v>
+        <v>30.87397278774442</v>
       </c>
       <c r="G17">
-        <v>2.058922017336309</v>
+        <v>3.640309754506368</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.45519228911938</v>
+        <v>21.29030401782913</v>
       </c>
       <c r="J17">
-        <v>6.689541742527974</v>
+        <v>9.858976643512349</v>
       </c>
       <c r="K17">
-        <v>29.62685273190643</v>
+        <v>19.49970772619966</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.36347891530448</v>
+        <v>22.9405138442473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.003917686198368</v>
+        <v>4.53206635263635</v>
       </c>
       <c r="D18">
-        <v>9.428662428153164</v>
+        <v>9.839876342163075</v>
       </c>
       <c r="E18">
-        <v>12.91637356203522</v>
+        <v>14.10121317168722</v>
       </c>
       <c r="F18">
-        <v>21.36868080366859</v>
+        <v>30.89740461614715</v>
       </c>
       <c r="G18">
-        <v>2.060497890996027</v>
+        <v>3.640835962873944</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.41661628750911</v>
+        <v>21.31397413290339</v>
       </c>
       <c r="J18">
-        <v>6.656221811112599</v>
+        <v>9.859209134865676</v>
       </c>
       <c r="K18">
-        <v>29.26334386549139</v>
+        <v>19.33428911586197</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.35818917296673</v>
+        <v>22.97263170237564</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.982341877498838</v>
+        <v>4.522636395020802</v>
       </c>
       <c r="D19">
-        <v>9.395285816352036</v>
+        <v>9.831877014448606</v>
       </c>
       <c r="E19">
-        <v>12.87292024417743</v>
+        <v>14.09327607298839</v>
       </c>
       <c r="F19">
-        <v>21.33069811256108</v>
+        <v>30.90552015243828</v>
       </c>
       <c r="G19">
-        <v>2.061032734372886</v>
+        <v>3.641015327504278</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.40405642377597</v>
+        <v>21.3221075281525</v>
       </c>
       <c r="J19">
-        <v>6.644989204944821</v>
+        <v>9.859316085531875</v>
       </c>
       <c r="K19">
-        <v>29.13932822873625</v>
+        <v>19.27794819268038</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.35700643323889</v>
+        <v>22.98363111469071</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.07887874457734</v>
+        <v>4.564882506657036</v>
       </c>
       <c r="D20">
-        <v>9.544795495052696</v>
+        <v>9.867896392669921</v>
       </c>
       <c r="E20">
-        <v>13.06787214595734</v>
+        <v>14.12913390008143</v>
       </c>
       <c r="F20">
-        <v>21.50407354854522</v>
+        <v>30.8697225900921</v>
       </c>
       <c r="G20">
-        <v>2.058630957230597</v>
+        <v>3.6402129345232</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.46257166791359</v>
+        <v>21.28597984579488</v>
       </c>
       <c r="J20">
-        <v>6.695731711090833</v>
+        <v>9.85894702165945</v>
       </c>
       <c r="K20">
-        <v>29.69368531611853</v>
+        <v>19.53016393695875</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.36475006820562</v>
+        <v>22.93462891574103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.393469482677483</v>
+        <v>4.703424054799165</v>
       </c>
       <c r="D21">
-        <v>10.03492711647279</v>
+        <v>9.989211885141422</v>
       </c>
       <c r="E21">
-        <v>13.71224291713906</v>
+        <v>14.25198239485602</v>
       </c>
       <c r="F21">
-        <v>22.12993903797858</v>
+        <v>30.76215977983393</v>
       </c>
       <c r="G21">
-        <v>2.050644681949157</v>
+        <v>3.637600206866795</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.69504819207041</v>
+        <v>21.17291848154202</v>
       </c>
       <c r="J21">
-        <v>6.869594795558696</v>
+        <v>9.85966871134155</v>
       </c>
       <c r="K21">
-        <v>31.49144784254737</v>
+        <v>20.35390349189684</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.43500140876448</v>
+        <v>22.77870972804182</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.591790253541428</v>
+        <v>4.791345075144528</v>
       </c>
       <c r="D22">
-        <v>10.34602086981398</v>
+        <v>10.06862072687564</v>
       </c>
       <c r="E22">
-        <v>14.12518112130591</v>
+        <v>14.33394116108645</v>
       </c>
       <c r="F22">
-        <v>22.57181538734413</v>
+        <v>30.70140056088838</v>
       </c>
       <c r="G22">
-        <v>2.045480346826653</v>
+        <v>3.635954367760212</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.87482550907377</v>
+        <v>21.1052732332961</v>
       </c>
       <c r="J22">
-        <v>6.985711049528441</v>
+        <v>9.861599326671872</v>
       </c>
       <c r="K22">
-        <v>32.61862879693954</v>
+        <v>20.87408058687837</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.51607915915905</v>
+        <v>22.68335035159236</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.486608885373431</v>
+        <v>4.744665546962926</v>
       </c>
       <c r="D23">
-        <v>10.18083663747668</v>
+        <v>10.02623381983263</v>
       </c>
       <c r="E23">
-        <v>13.90555202040905</v>
+        <v>14.29005170967</v>
       </c>
       <c r="F23">
-        <v>22.33294201512847</v>
+        <v>30.73295200139086</v>
       </c>
       <c r="G23">
-        <v>2.048232069691021</v>
+        <v>3.636827152919104</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.77626060933067</v>
+        <v>21.1408023802258</v>
       </c>
       <c r="J23">
-        <v>6.923511553741402</v>
+        <v>9.860435648440912</v>
       </c>
       <c r="K23">
-        <v>32.02136542340043</v>
+        <v>20.59814835761903</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.46945165114496</v>
+        <v>22.73364401821913</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.073614066673728</v>
+        <v>4.562575099380662</v>
       </c>
       <c r="D24">
-        <v>9.536630595075119</v>
+        <v>9.865917019131922</v>
       </c>
       <c r="E24">
-        <v>13.05720554833747</v>
+        <v>14.12715559539621</v>
       </c>
       <c r="F24">
-        <v>21.49439100768439</v>
+        <v>30.87164076718372</v>
       </c>
       <c r="G24">
-        <v>2.058762520689276</v>
+        <v>3.640256684376928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.45922630570382</v>
+        <v>21.28793260738247</v>
       </c>
       <c r="J24">
-        <v>6.6929323894365</v>
+        <v>9.858959901799052</v>
       </c>
       <c r="K24">
-        <v>29.66348777008242</v>
+        <v>19.51640101124758</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.36416414970284</v>
+        <v>22.93728717925812</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.59697903308619</v>
+        <v>4.355503752064717</v>
       </c>
       <c r="D25">
-        <v>8.803175192694303</v>
+        <v>9.694149326682092</v>
       </c>
       <c r="E25">
-        <v>12.10890295403424</v>
+        <v>13.95923801074832</v>
       </c>
       <c r="F25">
-        <v>20.72712870123317</v>
+        <v>31.06176658858483</v>
       </c>
       <c r="G25">
-        <v>2.070402074400972</v>
+        <v>3.644222864098686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.22932420183252</v>
+        <v>21.47317155601469</v>
       </c>
       <c r="J25">
-        <v>6.455101475162653</v>
+        <v>9.863650444611228</v>
       </c>
       <c r="K25">
-        <v>26.91169959828542</v>
+        <v>18.27522318448346</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.38710603973408</v>
+        <v>23.1847663000685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.194610486936591</v>
+        <v>5.219552989453331</v>
       </c>
       <c r="D2">
-        <v>9.569347722294449</v>
+        <v>8.231681652750398</v>
       </c>
       <c r="E2">
-        <v>13.84292599521781</v>
+        <v>11.38511401661234</v>
       </c>
       <c r="F2">
-        <v>31.23611681445975</v>
+        <v>20.27460897581891</v>
       </c>
       <c r="G2">
-        <v>3.64737526039056</v>
+        <v>2.079259476364711</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.6320821660381</v>
+        <v>13.14698360348165</v>
       </c>
       <c r="J2">
-        <v>9.872518522162169</v>
+        <v>6.289600863088518</v>
       </c>
       <c r="K2">
-        <v>17.3022849943482</v>
+        <v>24.70261989631538</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.39063903491109</v>
+        <v>13.50474871477537</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.080754817109423</v>
+        <v>4.947597408609372</v>
       </c>
       <c r="D3">
-        <v>9.486150388326237</v>
+        <v>7.826099239749407</v>
       </c>
       <c r="E3">
-        <v>13.76896597225797</v>
+        <v>10.88086764273542</v>
       </c>
       <c r="F3">
-        <v>31.37544491137397</v>
+        <v>20.03424297366799</v>
       </c>
       <c r="G3">
-        <v>3.649657766113261</v>
+        <v>2.085462082774654</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.7536717553161</v>
+        <v>13.14004184968523</v>
       </c>
       <c r="J3">
-        <v>9.881908553824912</v>
+        <v>6.183581137079488</v>
       </c>
       <c r="K3">
-        <v>16.60921730026283</v>
+        <v>23.08979876299367</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.54478484021562</v>
+        <v>13.63883286428164</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.008639872439859</v>
+        <v>4.772827323333441</v>
       </c>
       <c r="D4">
-        <v>9.435861461953655</v>
+        <v>7.568673883958067</v>
       </c>
       <c r="E4">
-        <v>13.72604734753341</v>
+        <v>10.5654539162922</v>
       </c>
       <c r="F4">
-        <v>31.47134251587159</v>
+        <v>19.91778161995368</v>
       </c>
       <c r="G4">
-        <v>3.651131723957966</v>
+        <v>2.089375361613839</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.83513027385881</v>
+        <v>13.15795975848011</v>
       </c>
       <c r="J4">
-        <v>9.889341373462049</v>
+        <v>6.121560036597603</v>
       </c>
       <c r="K4">
-        <v>16.16834046132578</v>
+        <v>22.04201994245091</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.6466012201505</v>
+        <v>13.74520494999868</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.978725405040316</v>
+        <v>4.699686522940787</v>
       </c>
       <c r="D5">
-        <v>9.415585151080871</v>
+        <v>7.461774191673452</v>
       </c>
       <c r="E5">
-        <v>13.70919814481828</v>
+        <v>10.4356327701583</v>
       </c>
       <c r="F5">
-        <v>31.51301000273679</v>
+        <v>19.87788097241664</v>
       </c>
       <c r="G5">
-        <v>3.6517506613563</v>
+        <v>2.09099728485125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.87002796843324</v>
+        <v>13.17054348334583</v>
       </c>
       <c r="J5">
-        <v>9.892789555397641</v>
+        <v>6.097065703139285</v>
       </c>
       <c r="K5">
-        <v>15.98504849944392</v>
+        <v>21.60053417376856</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.68988877388743</v>
+        <v>13.79419849482609</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.97372715782322</v>
+        <v>4.687426842420528</v>
       </c>
       <c r="D6">
-        <v>9.412231871653997</v>
+        <v>7.443906732957378</v>
       </c>
       <c r="E6">
-        <v>13.70643940995901</v>
+        <v>10.4140038055616</v>
       </c>
       <c r="F6">
-        <v>31.52008477404822</v>
+        <v>19.87170355882852</v>
       </c>
       <c r="G6">
-        <v>3.651854541712664</v>
+        <v>2.091268273025894</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.87592531577196</v>
+        <v>13.17294327063209</v>
       </c>
       <c r="J6">
-        <v>9.893387442600208</v>
+        <v>6.093045690852569</v>
       </c>
       <c r="K6">
-        <v>15.95440079643872</v>
+        <v>21.52634842827475</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.69718496002385</v>
+        <v>13.80266343410715</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.008238530926345</v>
+        <v>4.7718486403851</v>
       </c>
       <c r="D7">
-        <v>9.4355871083502</v>
+        <v>7.567240115680566</v>
       </c>
       <c r="E7">
-        <v>13.72581750273441</v>
+        <v>10.56370807086718</v>
       </c>
       <c r="F7">
-        <v>31.47189399661017</v>
+        <v>19.91721327981027</v>
       </c>
       <c r="G7">
-        <v>3.651139997039631</v>
+        <v>2.08939712407253</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.83559403253041</v>
+        <v>13.15810847509469</v>
       </c>
       <c r="J7">
-        <v>9.889386179423175</v>
+        <v>6.121226532827474</v>
       </c>
       <c r="K7">
-        <v>16.1658829074648</v>
+        <v>22.03612470587693</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.64717774556613</v>
+        <v>13.7458433512427</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.15582723303988</v>
+        <v>5.127419044876853</v>
       </c>
       <c r="D8">
-        <v>9.540506694133462</v>
+        <v>8.093641870734087</v>
       </c>
       <c r="E8">
-        <v>13.81691553894355</v>
+        <v>11.21255034098632</v>
       </c>
       <c r="F8">
-        <v>31.28200075062732</v>
+        <v>20.18511961036529</v>
       </c>
       <c r="G8">
-        <v>3.648147258878002</v>
+        <v>2.081376908026627</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.67258985266911</v>
+        <v>13.13981132525886</v>
       </c>
       <c r="J8">
-        <v>9.875410179419077</v>
+        <v>6.252411209308654</v>
       </c>
       <c r="K8">
-        <v>17.06662289652471</v>
+        <v>24.15842007922319</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.44229641289073</v>
+        <v>13.54574585414603</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.42661872121478</v>
+        <v>5.761679463549288</v>
       </c>
       <c r="D9">
-        <v>9.751795429294111</v>
+        <v>9.055268953085829</v>
       </c>
       <c r="E9">
-        <v>14.01470435654661</v>
+        <v>12.43255299955787</v>
       </c>
       <c r="F9">
-        <v>30.99235056580243</v>
+        <v>20.96768896062154</v>
       </c>
       <c r="G9">
-        <v>3.642850965887483</v>
+        <v>2.066439555246885</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.40725493987252</v>
+        <v>13.29258908002326</v>
       </c>
       <c r="J9">
-        <v>9.861229922837545</v>
+        <v>6.533740815723759</v>
       </c>
       <c r="K9">
-        <v>18.70285628469509</v>
+        <v>27.86683259948199</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.0977101675796</v>
+        <v>13.36259612056052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.612868529172054</v>
+        <v>6.188167795293046</v>
       </c>
       <c r="D10">
-        <v>9.90937096609378</v>
+        <v>9.714576503296096</v>
       </c>
       <c r="E10">
-        <v>14.17078646728502</v>
+        <v>13.29018677933124</v>
       </c>
       <c r="F10">
-        <v>30.830785855673</v>
+        <v>21.71097784967729</v>
       </c>
       <c r="G10">
-        <v>3.639304945569891</v>
+        <v>2.055884506087515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.24589570712284</v>
+        <v>13.53605423489128</v>
       </c>
       <c r="J10">
-        <v>9.858866795763797</v>
+        <v>6.754670050288294</v>
       </c>
       <c r="K10">
-        <v>19.81605735060812</v>
+        <v>30.31968891014845</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.87981161379226</v>
+        <v>13.38123804405238</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.694597892708351</v>
+        <v>6.373508907083629</v>
       </c>
       <c r="D11">
-        <v>9.981341663754224</v>
+        <v>10.00370307510191</v>
       </c>
       <c r="E11">
-        <v>14.243922604925</v>
+        <v>13.67096153732945</v>
       </c>
       <c r="F11">
-        <v>30.76857502406443</v>
+        <v>22.08748015321117</v>
       </c>
       <c r="G11">
-        <v>3.637765904245766</v>
+        <v>2.051158817105837</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.17988151057968</v>
+        <v>13.67838329020543</v>
       </c>
       <c r="J11">
-        <v>9.859536842505033</v>
+        <v>6.858183270591568</v>
       </c>
       <c r="K11">
-        <v>20.30157559152633</v>
+        <v>31.37775052907689</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.78843261815602</v>
+        <v>13.42844433933985</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.725098083487429</v>
+        <v>6.442443865442124</v>
       </c>
       <c r="D12">
-        <v>10.00861786132424</v>
+        <v>10.11160565473212</v>
       </c>
       <c r="E12">
-        <v>14.2719057577</v>
+        <v>13.8137489214631</v>
       </c>
       <c r="F12">
-        <v>30.74665278436012</v>
+        <v>22.23568055550936</v>
       </c>
       <c r="G12">
-        <v>3.637193697523984</v>
+        <v>2.049378883541549</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.15595443037151</v>
+        <v>13.73704186854449</v>
       </c>
       <c r="J12">
-        <v>9.860040936978203</v>
+        <v>6.89780831175712</v>
       </c>
       <c r="K12">
-        <v>20.4823178996291</v>
+        <v>31.77021241694998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.75495120886878</v>
+        <v>13.45232158635772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.718549556343587</v>
+        <v>6.427653067841717</v>
       </c>
       <c r="D13">
-        <v>10.00274274765844</v>
+        <v>10.0884376957492</v>
       </c>
       <c r="E13">
-        <v>14.26586657563768</v>
+        <v>13.78306023912897</v>
       </c>
       <c r="F13">
-        <v>30.75130118830296</v>
+        <v>22.20351115787069</v>
       </c>
       <c r="G13">
-        <v>3.637316462144645</v>
+        <v>2.049761820182654</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.16105978405225</v>
+        <v>13.72419364885326</v>
       </c>
       <c r="J13">
-        <v>9.859921246730641</v>
+        <v>6.889255442551447</v>
       </c>
       <c r="K13">
-        <v>20.44353183612653</v>
+        <v>31.68605185127874</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.76211200290178</v>
+        <v>13.44690562203141</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.697116256076953</v>
+        <v>6.379205274011285</v>
       </c>
       <c r="D14">
-        <v>9.983585351664841</v>
+        <v>10.01261215497569</v>
       </c>
       <c r="E14">
-        <v>14.24621913105424</v>
+        <v>13.68273713268179</v>
       </c>
       <c r="F14">
-        <v>30.76673861642743</v>
+        <v>22.09955936168886</v>
       </c>
       <c r="G14">
-        <v>3.63771861643246</v>
+        <v>2.051012196838097</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.1778915008916</v>
+        <v>13.68311255354251</v>
       </c>
       <c r="J14">
-        <v>9.859573300751268</v>
+        <v>6.861434720209441</v>
       </c>
       <c r="K14">
-        <v>20.31650832953216</v>
+        <v>31.41020239386598</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.78565555157293</v>
+        <v>13.43028605660225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.683928770969318</v>
+        <v>6.349366844896267</v>
       </c>
       <c r="D15">
-        <v>9.971853254069465</v>
+        <v>9.965959897373608</v>
       </c>
       <c r="E15">
-        <v>14.23422145710169</v>
+        <v>13.62110216127288</v>
       </c>
       <c r="F15">
-        <v>30.77640786524497</v>
+        <v>22.03662158508567</v>
       </c>
       <c r="G15">
-        <v>3.63796632567629</v>
+        <v>2.051779295351237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.18834114994201</v>
+        <v>13.65857546382517</v>
       </c>
       <c r="J15">
-        <v>9.859392759227834</v>
+        <v>6.844449162171879</v>
       </c>
       <c r="K15">
-        <v>20.23829438566114</v>
+        <v>31.24017151729182</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.80022299761005</v>
+        <v>13.42090012331009</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.607465439447254</v>
+        <v>6.175880493596953</v>
       </c>
       <c r="D16">
-        <v>9.904671690085278</v>
+        <v>9.695461250130666</v>
       </c>
       <c r="E16">
-        <v>14.16604819292084</v>
+        <v>13.26510847467729</v>
       </c>
       <c r="F16">
-        <v>30.83507968457223</v>
+        <v>21.68715454226659</v>
       </c>
       <c r="G16">
-        <v>3.639407011122221</v>
+        <v>2.056194756492572</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.25035930614984</v>
+        <v>13.5274075184999</v>
       </c>
       <c r="J16">
-        <v>9.858858075251245</v>
+        <v>6.747965238775082</v>
       </c>
       <c r="K16">
-        <v>19.7838975957678</v>
+        <v>30.24938845373995</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.88593997863277</v>
+        <v>13.37896967766114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.559776733347336</v>
+        <v>6.067227985582456</v>
       </c>
       <c r="D17">
-        <v>9.863518340798368</v>
+        <v>9.526728262091197</v>
       </c>
       <c r="E17">
-        <v>14.12475940857292</v>
+        <v>13.04427225288668</v>
       </c>
       <c r="F17">
-        <v>30.87397278774442</v>
+        <v>21.48268120344729</v>
       </c>
       <c r="G17">
-        <v>3.640309754506368</v>
+        <v>2.058922017336176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.29030401782913</v>
+        <v>13.45519228911943</v>
       </c>
       <c r="J17">
-        <v>9.858976643512349</v>
+        <v>6.68954174252792</v>
       </c>
       <c r="K17">
-        <v>19.49970772619966</v>
+        <v>29.62685273190642</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.9405138442473</v>
+        <v>13.36347891530452</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.53206635263635</v>
+        <v>6.003917686198276</v>
       </c>
       <c r="D18">
-        <v>9.839876342163075</v>
+        <v>9.428662428153155</v>
       </c>
       <c r="E18">
-        <v>14.10121317168722</v>
+        <v>12.91637356203523</v>
       </c>
       <c r="F18">
-        <v>30.89740461614715</v>
+        <v>21.36868080366853</v>
       </c>
       <c r="G18">
-        <v>3.640835962873944</v>
+        <v>2.060497890996161</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.31397413290339</v>
+        <v>13.41661628750904</v>
       </c>
       <c r="J18">
-        <v>9.859209134865676</v>
+        <v>6.656221811112585</v>
       </c>
       <c r="K18">
-        <v>19.33428911586197</v>
+        <v>29.26334386549141</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.97263170237564</v>
+        <v>13.35818917296664</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.522636395020802</v>
+        <v>5.982341877498762</v>
       </c>
       <c r="D19">
-        <v>9.831877014448606</v>
+        <v>9.395285816352073</v>
       </c>
       <c r="E19">
-        <v>14.09327607298839</v>
+        <v>12.87292024417744</v>
       </c>
       <c r="F19">
-        <v>30.90552015243828</v>
+        <v>21.33069811256101</v>
       </c>
       <c r="G19">
-        <v>3.641015327504278</v>
+        <v>2.061032734372887</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.3221075281525</v>
+        <v>13.4040564237759</v>
       </c>
       <c r="J19">
-        <v>9.859316085531875</v>
+        <v>6.644989204944779</v>
       </c>
       <c r="K19">
-        <v>19.27794819268038</v>
+        <v>29.13932822873632</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.98363111469071</v>
+        <v>13.35700643323876</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.564882506657036</v>
+        <v>6.078878744577279</v>
       </c>
       <c r="D20">
-        <v>9.867896392669921</v>
+        <v>9.544795495052734</v>
       </c>
       <c r="E20">
-        <v>14.12913390008143</v>
+        <v>13.06787214595736</v>
       </c>
       <c r="F20">
-        <v>30.8697225900921</v>
+        <v>21.50407354854511</v>
       </c>
       <c r="G20">
-        <v>3.6402129345232</v>
+        <v>2.058630957230599</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.28597984579488</v>
+        <v>13.46257166791353</v>
       </c>
       <c r="J20">
-        <v>9.85894702165945</v>
+        <v>6.695731711090872</v>
       </c>
       <c r="K20">
-        <v>19.53016393695875</v>
+        <v>29.69368531611854</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.93462891574103</v>
+        <v>13.36475006820553</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.703424054799165</v>
+        <v>6.393469482677558</v>
       </c>
       <c r="D21">
-        <v>9.989211885141422</v>
+        <v>10.03492711647277</v>
       </c>
       <c r="E21">
-        <v>14.25198239485602</v>
+        <v>13.71224291713907</v>
       </c>
       <c r="F21">
-        <v>30.76215977983393</v>
+        <v>22.12993903797859</v>
       </c>
       <c r="G21">
-        <v>3.637600206866795</v>
+        <v>2.050644681949156</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.17291848154202</v>
+        <v>13.69504819207042</v>
       </c>
       <c r="J21">
-        <v>9.85966871134155</v>
+        <v>6.869594795558713</v>
       </c>
       <c r="K21">
-        <v>20.35390349189684</v>
+        <v>31.49144784254738</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.77870972804182</v>
+        <v>13.4350014087645</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.791345075144528</v>
+        <v>6.591790253541531</v>
       </c>
       <c r="D22">
-        <v>10.06862072687564</v>
+        <v>10.346020869814</v>
       </c>
       <c r="E22">
-        <v>14.33394116108645</v>
+        <v>14.12518112130591</v>
       </c>
       <c r="F22">
-        <v>30.70140056088838</v>
+        <v>22.571815387344</v>
       </c>
       <c r="G22">
-        <v>3.635954367760212</v>
+        <v>2.045480346826785</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.1052732332961</v>
+        <v>13.87482550907364</v>
       </c>
       <c r="J22">
-        <v>9.861599326671872</v>
+        <v>6.98571104952848</v>
       </c>
       <c r="K22">
-        <v>20.87408058687837</v>
+        <v>32.6186287969396</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.68335035159236</v>
+        <v>13.51607915915889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.744665546962926</v>
+        <v>6.486608885373505</v>
       </c>
       <c r="D23">
-        <v>10.02623381983263</v>
+        <v>10.18083663747671</v>
       </c>
       <c r="E23">
-        <v>14.29005170967</v>
+        <v>13.90555202040904</v>
       </c>
       <c r="F23">
-        <v>30.73295200139086</v>
+        <v>22.33294201512839</v>
       </c>
       <c r="G23">
-        <v>3.636827152919104</v>
+        <v>2.048232069690887</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.1408023802258</v>
+        <v>13.7762606093306</v>
       </c>
       <c r="J23">
-        <v>9.860435648440912</v>
+        <v>6.923511553741355</v>
       </c>
       <c r="K23">
-        <v>20.59814835761903</v>
+        <v>32.02136542340041</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.73364401821913</v>
+        <v>13.46945165114487</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.562575099380662</v>
+        <v>6.073614066673605</v>
       </c>
       <c r="D24">
-        <v>9.865917019131922</v>
+        <v>9.536630595075147</v>
       </c>
       <c r="E24">
-        <v>14.12715559539621</v>
+        <v>13.0572055483375</v>
       </c>
       <c r="F24">
-        <v>30.87164076718372</v>
+        <v>21.49439100768433</v>
       </c>
       <c r="G24">
-        <v>3.640256684376928</v>
+        <v>2.058762520689543</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.28793260738247</v>
+        <v>13.45922630570378</v>
       </c>
       <c r="J24">
-        <v>9.858959901799052</v>
+        <v>6.6929323894365</v>
       </c>
       <c r="K24">
-        <v>19.51640101124758</v>
+        <v>29.66348777008245</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.93728717925812</v>
+        <v>13.36416414970275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.355503752064717</v>
+        <v>5.596979033086061</v>
       </c>
       <c r="D25">
-        <v>9.694149326682092</v>
+        <v>8.803175192694258</v>
       </c>
       <c r="E25">
-        <v>13.95923801074832</v>
+        <v>12.10890295403426</v>
       </c>
       <c r="F25">
-        <v>31.06176658858483</v>
+        <v>20.72712870123308</v>
       </c>
       <c r="G25">
-        <v>3.644222864098686</v>
+        <v>2.070402074401106</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.47317155601469</v>
+        <v>13.22932420183249</v>
       </c>
       <c r="J25">
-        <v>9.863650444611228</v>
+        <v>6.455101475162694</v>
       </c>
       <c r="K25">
-        <v>18.27522318448346</v>
+        <v>26.91169959828544</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.1847663000685</v>
+        <v>13.38710603973403</v>
       </c>
     </row>
   </sheetData>
